--- a/biology/Médecine/MTTP/MTTP.xlsx
+++ b/biology/Médecine/MTTP/MTTP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La MTTP (« microsomal triglyceride transfer protein ») est une protéine dont le gène est du même nom, intervenant dans le métabolisme des lipides.
 </t>
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est constituée de deux sous-unités : une isomérase et une chaîne de 97 Kdaltons[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est constituée de deux sous-unités : une isomérase et une chaîne de 97 Kdaltons. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle permet le transport des triglycérides, du cholestérols et des phospholipides à travers la membrane[5]. Elle permet la synthèse de l'apolipoprotéine B et intervient dans la synthèse du cholestérol[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle permet le transport des triglycérides, du cholestérols et des phospholipides à travers la membrane. Elle permet la synthèse de l'apolipoprotéine B et intervient dans la synthèse du cholestérol.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abêtalipoprotéinémie est conséquence d'une mutation sur le gène codant la chaîne de 97Kdaltons[5]. Elle s'accompagne d'un taux bas de cholestérol avec des VLDL et de LDL très bas.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abêtalipoprotéinémie est conséquence d'une mutation sur le gène codant la chaîne de 97Kdaltons. Elle s'accompagne d'un taux bas de cholestérol avec des VLDL et de LDL très bas.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lomitapide est un inhibiteur du MTTP en cous de test chez certaines formes d'hypercholestérolémie[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lomitapide est un inhibiteur du MTTP en cous de test chez certaines formes d'hypercholestérolémie.
 </t>
         </is>
       </c>
